--- a/Com_Sys_Arch/cache_simulation/Cache_Sim.xlsx
+++ b/Com_Sys_Arch/cache_simulation/Cache_Sim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AD\CU_submission\Com_Sys_Arch\cache_simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55CECBC7-2DD3-4C3C-AFB5-C81CFC3754A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C698D4-8D98-4B92-9347-D38B33915F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18B8B690-A215-4FAE-9009-B54121C6A1A3}"/>
+    <workbookView minimized="1" xWindow="5520" yWindow="-240" windowWidth="21600" windowHeight="11295" xr2:uid="{18B8B690-A215-4FAE-9009-B54121C6A1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,11 +64,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -117,10 +117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +132,2636 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Direct mapped</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22BB-472A-B868-C7966B66228F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82609999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94789999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22BB-472A-B868-C7966B66228F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95340000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22BB-472A-B868-C7966B66228F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95589999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22BB-472A-B868-C7966B66228F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1610030191"/>
+        <c:axId val="1122554815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1610030191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1122554815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1122554815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.82000000000000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610030191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Associativity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2W LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.74590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D01C-4A70-85EA-4A1B89AE5892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2W RR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98729999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D01C-4A70-85EA-4A1B89AE5892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4W LRU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.76380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D01C-4A70-85EA-4A1B89AE5892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4W RR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.73760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D01C-4A70-85EA-4A1B89AE5892}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1621310591"/>
+        <c:axId val="1131197631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1621310591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Size (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131197631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1131197631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hit Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1621310591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8401C16-EB96-1373-836D-2945084E8478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97416552-8D37-0400-DCC5-AC2022BD288F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,166 +3063,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDC657F-687E-44C4-892C-2EA140002456}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="L4" s="2">
+      <c r="B4" s="1">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="M4" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.73760000000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="L5" s="2">
+      <c r="B5" s="1">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.8831</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="M5" s="1">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.87960000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="21" customHeight="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="L6" s="2">
+      <c r="B6" s="1">
+        <v>0.8387</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8921</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="L6" s="1">
         <v>8</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="M6" s="1">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.91720000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="21" customHeight="1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="L7" s="2">
+      <c r="B7" s="1">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="L7" s="1">
         <v>32</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="M7" s="1">
+        <v>0.9698</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.97170000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1">
-      <c r="L8" s="3">
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
         <v>512</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="M8" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.98740000000000006</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1">
-      <c r="L9" s="3">
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
         <v>1024</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="M9" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.98740000000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -609,5 +3313,6 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>